--- a/Wip/DEV_DailyReports/DailyReport_ThinhNTY.xlsx
+++ b/Wip/DEV_DailyReports/DailyReport_ThinhNTY.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>TOTAL</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>14/1/2013</t>
+  </si>
+  <si>
+    <t>Design Customer Order Screen</t>
+  </si>
+  <si>
+    <t>Edit Customer screen</t>
+  </si>
+  <si>
+    <t>Edit Hub screen</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1058,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1145,12 +1157,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="52" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1168,6 +1174,15 @@
     </xf>
     <xf numFmtId="18" fontId="1" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="52" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="28" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1729,7 +1744,7 @@
   <dimension ref="B1:O25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1847,16 +1862,16 @@
       <c r="H7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="42" t="s">
         <v>36</v>
       </c>
       <c r="M7" s="20"/>
@@ -1868,7 +1883,7 @@
       <c r="B8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="23"/>
@@ -1878,16 +1893,16 @@
       <c r="H8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="46" t="s">
+      <c r="K8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="41" t="s">
         <v>36</v>
       </c>
       <c r="M8" s="26"/>
@@ -1899,14 +1914,22 @@
       <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="36" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
+      <c r="H9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="K9" s="19"/>
       <c r="L9" s="18"/>
       <c r="M9" s="20"/>
@@ -1918,14 +1941,22 @@
       <c r="B10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
+      <c r="H10" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>34</v>
+      </c>
       <c r="K10" s="25"/>
       <c r="L10" s="24"/>
       <c r="M10" s="26" t="str">
@@ -1940,14 +1971,20 @@
       <c r="B11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
+      <c r="H11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="19"/>
       <c r="K11" s="28"/>
       <c r="L11" s="27"/>
       <c r="M11" s="29" t="str">
@@ -2149,18 +2186,18 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
       <c r="O23" s="37"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
@@ -2175,7 +2212,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H11">
       <formula1>$O$5:$O$11</formula1>
     </dataValidation>
   </dataValidations>
